--- a/doc/MISS_요구사항정의서_220518.xlsx
+++ b/doc/MISS_요구사항정의서_220518.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaew\Desktop\MISS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B352ED9-8068-4E74-B7F8-8C7B1C746F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="2" r:id="rId1"/>
     <sheet name="요구사항" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">요구사항!$A$6:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">요구사항!$A$6:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +78,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>확인일</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Requirement Tracking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자체 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>간편 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화 예매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성인인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>간편 결제 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문의내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">회원가입 </t>
   </si>
   <si>
@@ -209,13 +202,86 @@
   <si>
     <t>이벤트(할인 및 적립) / 쿠폰</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE / PAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥지웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박건후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginController</t>
+  </si>
+  <si>
+    <t>MovieController</t>
+  </si>
+  <si>
+    <t>PayController</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaqController</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MypageController</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,7 +523,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,9 +566,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,24 +575,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,12 +591,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,34 +926,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,35 +961,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" location="요구사항!A1" display="요구사항정의서"/>
+    <hyperlink ref="C7" location="요구사항!A1" display="요구사항정의서" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="9" customWidth="1"/>
@@ -927,12 +999,11 @@
     <col min="6" max="6" width="24.25" style="9" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="9" customWidth="1"/>
     <col min="8" max="8" width="6.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="9"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6"/>
@@ -942,22 +1013,20 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -965,10 +1034,9 @@
       <c r="F3" s="11"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -976,10 +1044,9 @@
       <c r="F4" s="11"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="7"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -987,355 +1054,466 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="B6" s="23" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="D10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="B10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="B12" s="16" t="s">
+      <c r="D19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="C20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="F20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1">
-      <c r="B18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="2:9" ht="18" customHeight="1">
-      <c r="B19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1">
-      <c r="B20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" customHeight="1">
-      <c r="B21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="2:9" ht="18" customHeight="1">
-      <c r="B22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1">
-      <c r="B23" s="16" t="s">
-        <v>19</v>
+      <c r="E22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1">
-      <c r="B24" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1">
-      <c r="B25" s="16" t="s">
-        <v>19</v>
+      <c r="D24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1">
-      <c r="B26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" ht="18" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="2:9" ht="18" customHeight="1">
-      <c r="B28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" ht="18" customHeight="1">
-      <c r="B29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="D25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1346,18 +1524,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65374:D65536 D130910:D131072 D196446:D196608 D261982:D262144 D327518:D327680 D393054:D393216 D458590:D458752 D524126:D524288 D589662:D589824 D655198:D655360 D720734:D720896 D786270:D786432 D851806:D851968 D917342:D917504 D982878:D983040 D8:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65371:D65533 D130907:D131069 D196443:D196605 D261979:D262141 D327515:D327677 D393051:D393213 D458587:D458749 D524123:D524285 D589659:D589821 D655195:D655357 D720731:D720893 D786267:D786429 D851803:D851965 D917339:D917501 D982875:D983037 D8:D26" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>요구사항반영구분</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65374:G65536 G130910:G131072 G196446:G196608 G261982:G262144 G327518:G327680 G393054:G393216 G458590:G458752 G524126:G524288 G589662:G589824 G655198:G655360 G720734:G720896 G786270:G786432 G851806:G851968 G917342:G917504 G982878:G983040 G8:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65371:G65533 G130907:G131069 G196443:G196605 G261979:G262141 G327515:G327677 G393051:G393213 G458587:G458749 G524123:G524285 G589659:G589821 G655195:G655357 G720731:G720893 G786267:G786429 G851803:G851965 G917339:G917501 G982875:G983037 G8:G22" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>여부</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65374:B65536 B982878:B983040 B917342:B917504 B851806:B851968 B786270:B786432 B720734:B720896 B655198:B655360 B589662:B589824 B524126:B524288 B458590:B458752 B393054:B393216 B327518:B327680 B261982:B262144 B196446:B196608 B130910:B131072 B8:B13 B18:B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65371:B65533 B982875:B983037 B917339:B917501 B851803:B851965 B786267:B786429 B720731:B720893 B655195:B655357 B589659:B589821 B524123:B524285 B458587:B458749 B393051:B393213 B327515:B327677 B261979:B262141 B196443:B196605 B130907:B131069 B16:B26 B8:B12" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>요구사항구분</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1:A5" location="목차!A1" display="Project"/>
+    <hyperlink ref="A1:A5" location="목차!A1" display="Project" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
